--- a/conejo/one_fictitious/output_test_a2.xlsx
+++ b/conejo/one_fictitious/output_test_a2.xlsx
@@ -543,7 +543,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="11">
@@ -554,7 +554,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>41.818837</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -565,7 +565,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -675,7 +675,7 @@
         <v>155</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23">
@@ -686,7 +686,7 @@
         <v>155</v>
       </c>
       <c r="C23" t="n">
-        <v>48.157008</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24">
@@ -708,7 +708,7 @@
         <v>400</v>
       </c>
       <c r="C25" t="n">
-        <v>854.92416</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26">
@@ -864,10 +864,10 @@
         <v>175</v>
       </c>
       <c r="C2" t="n">
-        <v>33.891884</v>
+        <v>24.990052</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.11759556</v>
+        <v>1.9332613</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -884,10 +884,10 @@
         <v>175</v>
       </c>
       <c r="C3" t="n">
-        <v>-110.24622</v>
+        <v>-91.732021</v>
       </c>
       <c r="D3" t="n">
-        <v>3.6860238</v>
+        <v>-7.1995755</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>175</v>
       </c>
       <c r="C4" t="n">
-        <v>-31.645667</v>
+        <v>-41.25803</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.77091807</v>
+        <v>-8.837354700000001</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>175</v>
       </c>
       <c r="C5" t="n">
-        <v>-47.688405</v>
+        <v>-50.509948</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.33816593</v>
+        <v>-7.469632</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>175</v>
       </c>
       <c r="C6" t="n">
-        <v>-15.419711</v>
+        <v>-21.5</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.1014961</v>
+        <v>37.805969</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -964,10 +964,10 @@
         <v>175</v>
       </c>
       <c r="C7" t="n">
-        <v>42.221989</v>
+        <v>2.8699097</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.4185461</v>
+        <v>-4.4536593</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>-309.96821</v>
+        <v>-98.74149199999999</v>
       </c>
       <c r="D8" t="n">
-        <v>-15.355713</v>
+        <v>0.27757779</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1004,10 +1004,10 @@
         <v>175</v>
       </c>
       <c r="C9" t="n">
-        <v>-121.68841</v>
+        <v>-124.50995</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.27692328</v>
+        <v>-6.116864</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1024,10 +1024,10 @@
         <v>175</v>
       </c>
       <c r="C10" t="n">
-        <v>-102.64567</v>
+        <v>-112.25803</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.79812694</v>
+        <v>-9.149261299999999</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>175</v>
       </c>
       <c r="C11" t="n">
-        <v>-151.41971</v>
+        <v>-157.5</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3499545</v>
+        <v>12.011271</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>69.737118</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         <v>175</v>
       </c>
       <c r="C12" t="n">
-        <v>-83.181163</v>
+        <v>157.5</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>-1.6723225</v>
       </c>
     </row>
     <row r="13">
@@ -1084,10 +1084,10 @@
         <v>175</v>
       </c>
       <c r="C13" t="n">
-        <v>-146.83251</v>
+        <v>-23.805448</v>
       </c>
       <c r="D13" t="n">
-        <v>0.41825697</v>
+        <v>3.1666906</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>175</v>
       </c>
       <c r="C14" t="n">
-        <v>-107.34866</v>
+        <v>10.305448</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.41825697</v>
+        <v>-3.1666906</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1124,10 +1124,10 @@
         <v>400</v>
       </c>
       <c r="C15" t="n">
-        <v>-188.45752</v>
+        <v>-112.75279</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.6947134</v>
+        <v>-2.0826203</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>400</v>
       </c>
       <c r="C16" t="n">
-        <v>-212.8414</v>
+        <v>-207.69269</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.4349983</v>
+        <v>-4.3895498</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1164,10 +1164,10 @@
         <v>400</v>
       </c>
       <c r="C17" t="n">
-        <v>-266.01508</v>
+        <v>-179.75634</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.85819948</v>
+        <v>4.2507609</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>400</v>
       </c>
       <c r="C18" t="n">
-        <v>-290.39896</v>
+        <v>-274.69624</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.5984843399999999</v>
+        <v>1.9438314</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1204,10 +1204,10 @@
         <v>500</v>
       </c>
       <c r="C19" t="n">
-        <v>-272.96604</v>
+        <v>-356.42422</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.16444866</v>
+        <v>-2.1027283</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1224,10 +1224,10 @@
         <v>500</v>
       </c>
       <c r="C20" t="n">
-        <v>-181.50656</v>
+        <v>63.915082</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.1325639</v>
+        <v>2.9239575</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>500</v>
       </c>
       <c r="C21" t="n">
-        <v>-230.29426</v>
+        <v>-190.27939</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.42416381</v>
+        <v>0.20420122</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1264,10 +1264,10 @@
         <v>500</v>
       </c>
       <c r="C22" t="n">
-        <v>-272.94609</v>
+        <v>-292.10954</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.4910239</v>
+        <v>-3.2368791</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1284,10 +1284,10 @@
         <v>500</v>
       </c>
       <c r="C23" t="n">
-        <v>-177.26031</v>
+        <v>-220.70361</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.0668601</v>
+        <v>-3.4410803</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1304,10 +1304,10 @@
         <v>500</v>
       </c>
       <c r="C24" t="n">
-        <v>-375.50656</v>
+        <v>-130.08492</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.5909826</v>
+        <v>4.1074642</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1324,10 +1324,10 @@
         <v>500</v>
       </c>
       <c r="C25" t="n">
-        <v>92.441086</v>
+        <v>-40.673483</v>
       </c>
       <c r="D25" t="n">
-        <v>16.024844</v>
+        <v>0.045730447</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>500</v>
       </c>
       <c r="C26" t="n">
-        <v>-377.70465</v>
+        <v>-66.94219699999999</v>
       </c>
       <c r="D26" t="n">
-        <v>20.024843</v>
+        <v>0.015054545</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1364,10 +1364,10 @@
         <v>500</v>
       </c>
       <c r="C27" t="n">
-        <v>-377.70465</v>
+        <v>-66.94219699999999</v>
       </c>
       <c r="D27" t="n">
-        <v>20.024843</v>
+        <v>0.015054545</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>500</v>
       </c>
       <c r="C28" t="n">
-        <v>309.96821</v>
+        <v>98.74149199999999</v>
       </c>
       <c r="D28" t="n">
-        <v>9.505917699999999</v>
+        <v>-0.17183387</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1404,10 +1404,10 @@
         <v>500</v>
       </c>
       <c r="C29" t="n">
-        <v>-488.11486</v>
+        <v>334.2416</v>
       </c>
       <c r="D29" t="n">
-        <v>23.088989</v>
+        <v>-0.015976252</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1424,13 +1424,13 @@
         <v>500</v>
       </c>
       <c r="C30" t="n">
-        <v>153.2064</v>
+        <v>-450</v>
       </c>
       <c r="D30" t="n">
-        <v>0.63558273</v>
+        <v>1.6772183</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>16.513047</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1444,13 +1444,13 @@
         <v>500</v>
       </c>
       <c r="C31" t="n">
-        <v>-305.89036</v>
+        <v>-450</v>
       </c>
       <c r="D31" t="n">
-        <v>-9.897994499999999</v>
+        <v>-0.00741303</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.00040309249</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>500</v>
       </c>
       <c r="C32" t="n">
-        <v>-160.62451</v>
+        <v>-183.11561</v>
       </c>
       <c r="D32" t="n">
-        <v>-11.585807</v>
+        <v>-0.008921753100000001</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1484,10 +1484,10 @@
         <v>500</v>
       </c>
       <c r="C33" t="n">
-        <v>-119.44518</v>
+        <v>-191.5</v>
       </c>
       <c r="D33" t="n">
-        <v>-9.1909949</v>
+        <v>-0.0068835278</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1504,10 +1504,10 @@
         <v>500</v>
       </c>
       <c r="C34" t="n">
-        <v>-119.44518</v>
+        <v>-191.5</v>
       </c>
       <c r="D34" t="n">
-        <v>-9.1909949</v>
+        <v>-0.0068835278</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1524,10 +1524,10 @@
         <v>500</v>
       </c>
       <c r="C35" t="n">
-        <v>-13.8968</v>
+        <v>-315.5</v>
       </c>
       <c r="D35" t="n">
-        <v>0.55268063</v>
+        <v>1.4584507</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1544,10 +1544,10 @@
         <v>500</v>
       </c>
       <c r="C36" t="n">
-        <v>-13.8968</v>
+        <v>-315.5</v>
       </c>
       <c r="D36" t="n">
-        <v>0.55268063</v>
+        <v>1.4584507</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1564,10 +1564,10 @@
         <v>500</v>
       </c>
       <c r="C37" t="n">
-        <v>-77.8968</v>
+        <v>-379.5</v>
       </c>
       <c r="D37" t="n">
-        <v>0.30397435</v>
+        <v>0.80214788</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>500</v>
       </c>
       <c r="C38" t="n">
-        <v>-77.8968</v>
+        <v>-379.5</v>
       </c>
       <c r="D38" t="n">
-        <v>0.30397435</v>
+        <v>0.80214788</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -1604,10 +1604,10 @@
         <v>500</v>
       </c>
       <c r="C39" t="n">
-        <v>-139.37549</v>
+        <v>-116.88439</v>
       </c>
       <c r="D39" t="n">
-        <v>7.5031824</v>
+        <v>0.0057778972</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -1652,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>101.15077</v>
+        <v>116.49225</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.7653711600000001</v>
+        <v>-0.10227434</v>
       </c>
     </row>
     <row r="3">
@@ -1663,10 +1663,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>101.03318</v>
+        <v>118.42551</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.77011602</v>
+        <v>-0.10577295</v>
       </c>
     </row>
     <row r="4">
@@ -1674,10 +1674,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>104.8368</v>
+        <v>109.29267</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.53275164</v>
+        <v>0.09128022700000001</v>
       </c>
     </row>
     <row r="5">
@@ -1685,10 +1685,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>100.69519</v>
+        <v>110.95588</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.70955175</v>
+        <v>-0.041625312</v>
       </c>
     </row>
     <row r="6">
@@ -1696,10 +1696,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>100.37988</v>
+        <v>107.65489</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.7384723399999999</v>
+        <v>-0.06720501299999999</v>
       </c>
     </row>
     <row r="7">
@@ -1707,10 +1707,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>99.931708</v>
+        <v>156.23148</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.74051018</v>
+        <v>-0.064492946</v>
       </c>
     </row>
     <row r="8">
@@ -1721,7 +1721,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.87600995</v>
+        <v>0.14466104</v>
       </c>
     </row>
     <row r="9">
@@ -1729,10 +1729,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>100.00001</v>
+        <v>101.67232</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.82526944</v>
+        <v>0.048586044</v>
       </c>
     </row>
     <row r="10">
@@ -1740,10 +1740,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>100.41827</v>
+        <v>104.83901</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.58299581</v>
+        <v>0.08786503399999999</v>
       </c>
     </row>
     <row r="11">
@@ -1751,10 +1751,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>99.581754</v>
+        <v>98.50563200000001</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.64814415</v>
+        <v>0.031582054</v>
       </c>
     </row>
     <row r="12">
@@ -1762,10 +1762,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>98.72355399999999</v>
+        <v>102.75639</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.42469149</v>
+        <v>0.18257738</v>
       </c>
     </row>
     <row r="13">
@@ -1773,10 +1773,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>98.98327</v>
+        <v>100.44946</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.40420903</v>
+        <v>0.2623269</v>
       </c>
     </row>
     <row r="14">
@@ -1784,10 +1784,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>98.559106</v>
+        <v>100.65366</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.29366779</v>
+        <v>0.35366101</v>
       </c>
     </row>
     <row r="15">
@@ -1795,10 +1795,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>97.590991</v>
+        <v>105.68035</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.34845873</v>
+        <v>0.15573305</v>
       </c>
     </row>
     <row r="16">
@@ -1806,10 +1806,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>79.97516400000001</v>
+        <v>109.74208</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.11119488</v>
+        <v>0.22556866</v>
       </c>
     </row>
     <row r="17">
@@ -1817,10 +1817,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>96.00000799999999</v>
+        <v>109.78781</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.12690986</v>
+        <v>0.23248315</v>
       </c>
     </row>
     <row r="18">
@@ -1828,10 +1828,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>119.089</v>
+        <v>109.77184</v>
       </c>
       <c r="C18" t="n">
-        <v>8.7940322e-16</v>
+        <v>0.14558033</v>
       </c>
     </row>
     <row r="19">
@@ -1839,10 +1839,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>109.191</v>
+        <v>109.76402</v>
       </c>
       <c r="C19" t="n">
-        <v>0.04282465</v>
+        <v>0.20858033</v>
       </c>
     </row>
     <row r="20">
@@ -1850,10 +1850,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>96.63559100000001</v>
+        <v>94.95198600000001</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.16214734</v>
+        <v>0.33598315</v>
       </c>
     </row>
     <row r="21">
@@ -1861,10 +1861,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>97.188271</v>
+        <v>96.410436</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.15658862</v>
+        <v>0.46218315</v>
       </c>
     </row>
     <row r="22">
@@ -1872,10 +1872,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>100.00001</v>
+        <v>109.75714</v>
       </c>
       <c r="C22" t="n">
-        <v>0.073880396</v>
+        <v>0.25837033</v>
       </c>
     </row>
     <row r="23">
@@ -1883,10 +1883,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>107.50319</v>
+        <v>109.76292</v>
       </c>
       <c r="C23" t="n">
-        <v>0.16865573</v>
+        <v>0.33785172</v>
       </c>
     </row>
     <row r="24">
@@ -1894,10 +1894,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>97.49224599999999</v>
+        <v>97.21258400000001</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.13945132</v>
+        <v>0.5456731500000001</v>
       </c>
     </row>
     <row r="25">
@@ -1905,10 +1905,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>89.481082</v>
+        <v>109.57025</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.27237835</v>
+        <v>0.17422308</v>
       </c>
     </row>
   </sheetData>

--- a/conejo/one_fictitious/output_test_a2.xlsx
+++ b/conejo/one_fictitious/output_test_a2.xlsx
@@ -543,7 +543,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>82.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -697,7 +697,7 @@
         <v>400</v>
       </c>
       <c r="C24" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -796,7 +796,7 @@
         <v>155</v>
       </c>
       <c r="C33" t="n">
-        <v>155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -864,10 +864,10 @@
         <v>175</v>
       </c>
       <c r="C2" t="n">
-        <v>24.990052</v>
+        <v>54.857333</v>
       </c>
       <c r="D2" t="n">
-        <v>1.9332613</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -884,10 +884,10 @@
         <v>175</v>
       </c>
       <c r="C3" t="n">
-        <v>-91.732021</v>
+        <v>-153.85055</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.1995755</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>175</v>
       </c>
       <c r="C4" t="n">
-        <v>-41.25803</v>
+        <v>-9.006787299999999</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.837354700000001</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>175</v>
       </c>
       <c r="C5" t="n">
-        <v>-50.509948</v>
+        <v>-41.043154</v>
       </c>
       <c r="D5" t="n">
-        <v>-7.469632</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>175</v>
       </c>
       <c r="C6" t="n">
-        <v>-21.5</v>
+        <v>-1.0995133</v>
       </c>
       <c r="D6" t="n">
-        <v>37.805969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -964,10 +964,10 @@
         <v>175</v>
       </c>
       <c r="C7" t="n">
-        <v>2.8699097</v>
+        <v>134.90336</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.4536593</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>-98.74149199999999</v>
+        <v>-24.753901</v>
       </c>
       <c r="D8" t="n">
-        <v>0.27757779</v>
+        <v>-0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1004,10 +1004,10 @@
         <v>175</v>
       </c>
       <c r="C9" t="n">
-        <v>-124.50995</v>
+        <v>-115.04315</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.116864</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1024,10 +1024,10 @@
         <v>175</v>
       </c>
       <c r="C10" t="n">
-        <v>-112.25803</v>
+        <v>-80.006787</v>
       </c>
       <c r="D10" t="n">
-        <v>-9.149261299999999</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>175</v>
       </c>
       <c r="C11" t="n">
-        <v>-157.5</v>
+        <v>-137.09951</v>
       </c>
       <c r="D11" t="n">
-        <v>12.011271</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>69.737118</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         <v>175</v>
       </c>
       <c r="C12" t="n">
-        <v>157.5</v>
+        <v>175</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.6723225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1084,10 +1084,10 @@
         <v>175</v>
       </c>
       <c r="C13" t="n">
-        <v>-23.805448</v>
+        <v>-24.069065</v>
       </c>
       <c r="D13" t="n">
-        <v>3.1666906</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>175</v>
       </c>
       <c r="C14" t="n">
-        <v>10.305448</v>
+        <v>28.069065</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.1666906</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1124,10 +1124,10 @@
         <v>400</v>
       </c>
       <c r="C15" t="n">
-        <v>-112.75279</v>
+        <v>-70.809938</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.0826203</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>400</v>
       </c>
       <c r="C16" t="n">
-        <v>-207.69269</v>
+        <v>-108.39893</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.3895498</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1164,10 +1164,10 @@
         <v>400</v>
       </c>
       <c r="C17" t="n">
-        <v>-179.75634</v>
+        <v>-173.22412</v>
       </c>
       <c r="D17" t="n">
-        <v>4.2507609</v>
+        <v>1.0450204e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>400</v>
       </c>
       <c r="C18" t="n">
-        <v>-274.69624</v>
+        <v>-210.81311</v>
       </c>
       <c r="D18" t="n">
-        <v>1.9438314</v>
+        <v>-1.0450204e-13</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1204,10 +1204,10 @@
         <v>500</v>
       </c>
       <c r="C19" t="n">
-        <v>-356.42422</v>
+        <v>-233.81409</v>
       </c>
       <c r="D19" t="n">
-        <v>-2.1027283</v>
+        <v>5.9715453e-14</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1224,10 +1224,10 @@
         <v>500</v>
       </c>
       <c r="C20" t="n">
-        <v>63.915082</v>
+        <v>-10.219968</v>
       </c>
       <c r="D20" t="n">
-        <v>2.9239575</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>500</v>
       </c>
       <c r="C21" t="n">
-        <v>-190.27939</v>
+        <v>-168.03337</v>
       </c>
       <c r="D21" t="n">
-        <v>0.20420122</v>
+        <v>-5.9715453e-14</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1264,10 +1264,10 @@
         <v>500</v>
       </c>
       <c r="C22" t="n">
-        <v>-292.10954</v>
+        <v>-151.17867</v>
       </c>
       <c r="D22" t="n">
-        <v>-3.2368791</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1284,10 +1284,10 @@
         <v>500</v>
       </c>
       <c r="C23" t="n">
-        <v>-220.70361</v>
+        <v>-75.84746199999999</v>
       </c>
       <c r="D23" t="n">
-        <v>-3.4410803</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1304,10 +1304,10 @@
         <v>500</v>
       </c>
       <c r="C24" t="n">
-        <v>-130.08492</v>
+        <v>-204.21997</v>
       </c>
       <c r="D24" t="n">
-        <v>4.1074642</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1324,10 +1324,10 @@
         <v>500</v>
       </c>
       <c r="C25" t="n">
-        <v>-40.673483</v>
+        <v>58.457549</v>
       </c>
       <c r="D25" t="n">
-        <v>0.045730447</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>500</v>
       </c>
       <c r="C26" t="n">
-        <v>-66.94219699999999</v>
+        <v>-122.60573</v>
       </c>
       <c r="D26" t="n">
-        <v>0.015054545</v>
+        <v>1.4210855e-14</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1364,10 +1364,10 @@
         <v>500</v>
       </c>
       <c r="C27" t="n">
-        <v>-66.94219699999999</v>
+        <v>-122.60573</v>
       </c>
       <c r="D27" t="n">
-        <v>0.015054545</v>
+        <v>-1.4210855e-14</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>500</v>
       </c>
       <c r="C28" t="n">
-        <v>98.74149199999999</v>
+        <v>24.753901</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.17183387</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1404,10 +1404,10 @@
         <v>500</v>
       </c>
       <c r="C29" t="n">
-        <v>334.2416</v>
+        <v>-121.78855</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.015976252</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1424,13 +1424,13 @@
         <v>500</v>
       </c>
       <c r="C30" t="n">
-        <v>-450</v>
+        <v>31.02613</v>
       </c>
       <c r="D30" t="n">
-        <v>1.6772183</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>16.513047</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1444,13 +1444,13 @@
         <v>500</v>
       </c>
       <c r="C31" t="n">
-        <v>-450</v>
+        <v>18.297905</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.00741303</v>
+        <v>1.1500114e-15</v>
       </c>
       <c r="E31" t="n">
-        <v>0.00040309249</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>500</v>
       </c>
       <c r="C32" t="n">
-        <v>-183.11561</v>
+        <v>-140.08645</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.008921753100000001</v>
+        <v>-8.6250852e-15</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1484,10 +1484,10 @@
         <v>500</v>
       </c>
       <c r="C33" t="n">
-        <v>-191.5</v>
+        <v>-157.35105</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.0068835278</v>
+        <v>2.1357354e-15</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1504,10 +1504,10 @@
         <v>500</v>
       </c>
       <c r="C34" t="n">
-        <v>-191.5</v>
+        <v>-157.35105</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.0068835278</v>
+        <v>-0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1524,10 +1524,10 @@
         <v>500</v>
       </c>
       <c r="C35" t="n">
-        <v>-315.5</v>
+        <v>-74.986935</v>
       </c>
       <c r="D35" t="n">
-        <v>1.4584507</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1544,10 +1544,10 @@
         <v>500</v>
       </c>
       <c r="C36" t="n">
-        <v>-315.5</v>
+        <v>-74.986935</v>
       </c>
       <c r="D36" t="n">
-        <v>1.4584507</v>
+        <v>-0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1564,10 +1564,10 @@
         <v>500</v>
       </c>
       <c r="C37" t="n">
-        <v>-379.5</v>
+        <v>-138.98693</v>
       </c>
       <c r="D37" t="n">
-        <v>0.80214788</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>500</v>
       </c>
       <c r="C38" t="n">
-        <v>-379.5</v>
+        <v>-138.98693</v>
       </c>
       <c r="D38" t="n">
-        <v>0.80214788</v>
+        <v>-0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -1604,10 +1604,10 @@
         <v>500</v>
       </c>
       <c r="C39" t="n">
-        <v>-116.88439</v>
+        <v>-159.91355</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0057778972</v>
+        <v>5.5857695e-15</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -1652,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>116.49225</v>
+        <v>115.09</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.10227434</v>
+        <v>-124.83327</v>
       </c>
     </row>
     <row r="3">
@@ -1663,10 +1663,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>118.42551</v>
+        <v>115.09</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.10577295</v>
+        <v>-125.60127</v>
       </c>
     </row>
     <row r="4">
@@ -1674,10 +1674,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>109.29267</v>
+        <v>115.09</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09128022700000001</v>
+        <v>-92.370802</v>
       </c>
     </row>
     <row r="5">
@@ -1685,10 +1685,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>110.95588</v>
+        <v>115.09</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.041625312</v>
+        <v>-120.38879</v>
       </c>
     </row>
     <row r="6">
@@ -1696,10 +1696,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>107.65489</v>
+        <v>115.09</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.06720501299999999</v>
+        <v>-124.06769</v>
       </c>
     </row>
     <row r="7">
@@ -1707,10 +1707,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>156.23148</v>
+        <v>115.09</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.064492946</v>
+        <v>-125.39016</v>
       </c>
     </row>
     <row r="8">
@@ -1718,10 +1718,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>100</v>
+        <v>115.09</v>
       </c>
       <c r="C8" t="n">
-        <v>0.14466104</v>
+        <v>-101.7207</v>
       </c>
     </row>
     <row r="9">
@@ -1729,10 +1729,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>101.67232</v>
+        <v>115.09</v>
       </c>
       <c r="C9" t="n">
-        <v>0.048586044</v>
+        <v>-112.3957</v>
       </c>
     </row>
     <row r="10">
@@ -1740,10 +1740,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>104.83901</v>
+        <v>115.09</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08786503399999999</v>
+        <v>-108.4243</v>
       </c>
     </row>
     <row r="11">
@@ -1751,10 +1751,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>98.50563200000001</v>
+        <v>115.09</v>
       </c>
       <c r="C11" t="n">
-        <v>0.031582054</v>
+        <v>-117.02709</v>
       </c>
     </row>
     <row r="12">
@@ -1762,10 +1762,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>102.75639</v>
+        <v>115.09</v>
       </c>
       <c r="C12" t="n">
-        <v>0.18257738</v>
+        <v>-102.47627</v>
       </c>
     </row>
     <row r="13">
@@ -1773,10 +1773,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>100.44946</v>
+        <v>115.09</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2623269</v>
+        <v>-99.318792</v>
       </c>
     </row>
     <row r="14">
@@ -1784,10 +1784,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>100.65366</v>
+        <v>115.09</v>
       </c>
       <c r="C14" t="n">
-        <v>0.35366101</v>
+        <v>-91.25319</v>
       </c>
     </row>
     <row r="15">
@@ -1795,10 +1795,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>105.68035</v>
+        <v>115.09</v>
       </c>
       <c r="C15" t="n">
-        <v>0.15573305</v>
+        <v>-102.04703</v>
       </c>
     </row>
     <row r="16">
@@ -1806,10 +1806,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>109.74208</v>
+        <v>115.09</v>
       </c>
       <c r="C16" t="n">
-        <v>0.22556866</v>
+        <v>-89.004271</v>
       </c>
     </row>
     <row r="17">
@@ -1817,10 +1817,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>109.78781</v>
+        <v>115.09</v>
       </c>
       <c r="C17" t="n">
-        <v>0.23248315</v>
+        <v>-89.99805000000001</v>
       </c>
     </row>
     <row r="18">
@@ -1828,10 +1828,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>109.77184</v>
+        <v>115.09</v>
       </c>
       <c r="C18" t="n">
-        <v>0.14558033</v>
+        <v>-86.831547</v>
       </c>
     </row>
     <row r="19">
@@ -1839,10 +1839,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>109.76402</v>
+        <v>115.09</v>
       </c>
       <c r="C19" t="n">
-        <v>0.20858033</v>
+        <v>-87.087718</v>
       </c>
     </row>
     <row r="20">
@@ -1850,10 +1850,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>94.95198600000001</v>
+        <v>115.09</v>
       </c>
       <c r="C20" t="n">
-        <v>0.33598315</v>
+        <v>-90.711651</v>
       </c>
     </row>
     <row r="21">
@@ -1861,10 +1861,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>96.410436</v>
+        <v>115.09</v>
       </c>
       <c r="C21" t="n">
-        <v>0.46218315</v>
+        <v>-87.71217300000001</v>
       </c>
     </row>
     <row r="22">
@@ -1872,10 +1872,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>109.75714</v>
+        <v>115.09</v>
       </c>
       <c r="C22" t="n">
-        <v>0.25837033</v>
+        <v>-82.996591</v>
       </c>
     </row>
     <row r="23">
@@ -1883,10 +1883,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>109.76292</v>
+        <v>115.09</v>
       </c>
       <c r="C23" t="n">
-        <v>0.33785172</v>
+        <v>-72.12247000000001</v>
       </c>
     </row>
     <row r="24">
@@ -1894,10 +1894,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>97.21258400000001</v>
+        <v>115.09</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5456731500000001</v>
+        <v>-84.654461</v>
       </c>
     </row>
     <row r="25">
@@ -1905,10 +1905,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>109.57025</v>
+        <v>115.09</v>
       </c>
       <c r="C25" t="n">
-        <v>0.17422308</v>
+        <v>-90.29147399999999</v>
       </c>
     </row>
   </sheetData>
